--- a/data/data - old/ENVE - Losses due to insecurity.xlsx
+++ b/data/data - old/ENVE - Losses due to insecurity.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hbardwell\Documents\Github\econmpi18\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hbardwell\Documents\Github\MPI Econ 2020\data\data - old\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="2018" sheetId="1" r:id="rId1"/>
-    <sheet name="2017 and 2016" sheetId="2" r:id="rId2"/>
-    <sheet name="2015 and 2014" sheetId="3" r:id="rId3"/>
-    <sheet name="all" sheetId="4" r:id="rId4"/>
-    <sheet name="analysis" sheetId="6" r:id="rId5"/>
+    <sheet name="no data for 2019" sheetId="7" r:id="rId1"/>
+    <sheet name="2018" sheetId="1" r:id="rId2"/>
+    <sheet name="2017 and 2016" sheetId="2" r:id="rId3"/>
+    <sheet name="2015 and 2014" sheetId="3" r:id="rId4"/>
+    <sheet name="all" sheetId="4" r:id="rId5"/>
+    <sheet name="analysis" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="48">
   <si>
     <t>Aguascalientes</t>
   </si>
@@ -173,14 +174,17 @@
   <si>
     <t>VI. Pérdidas a consecuencia de la inseguridad</t>
   </si>
+  <si>
+    <t>https://www.inegi.org.mx/programas/enve/2018/default.html#Tabulados</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="###\ ###\ ###\ ###\ ##0"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="###\ ###\ ###\ ###\ ##0"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -434,7 +438,7 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -448,21 +452,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -472,18 +476,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -496,23 +500,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
@@ -524,7 +528,7 @@
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -584,6 +588,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1411,6 +1416,49 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>483886</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>103714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="15114286" cy="8485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -1496,13 +1544,13 @@
         <n v="2018"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Spending on measures to protect from crime" numFmtId="43">
+    <cacheField name="Spending on measures to protect from crime" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="114641967.13018" maxValue="15965189232.919912"/>
     </cacheField>
-    <cacheField name="Losses as a result of crime" numFmtId="43">
+    <cacheField name="Losses as a result of crime" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="106854443.67883366" maxValue="16959530401.138617"/>
     </cacheField>
-    <cacheField name="Costs of crime" numFmtId="43">
+    <cacheField name="Costs of crime" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="382275965.34978968" maxValue="30908621387.099026"/>
     </cacheField>
   </cacheFields>
@@ -2640,7 +2688,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A42:F76" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -2691,9 +2739,9 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="43" showAll="0"/>
-    <pivotField numFmtId="43" showAll="0"/>
-    <pivotField dataField="1" numFmtId="43" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -2880,7 +2928,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G37" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -2931,9 +2979,9 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="43" showAll="0"/>
-    <pivotField numFmtId="43" showAll="0"/>
-    <pivotField dataField="1" numFmtId="43" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -3063,7 +3111,7 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Costs of crime" fld="4" baseField="0" baseItem="0" numFmtId="43"/>
+    <dataField name="Sum of Costs of crime" fld="4" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
     <format dxfId="0">
@@ -3342,10 +3390,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="AA8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA8" sqref="AA8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="8" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA8" s="43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AA8" r:id="rId1" location="Tabulados" display="https://www.inegi.org.mx/programas/enve/2018/default.html - Tabulados"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3930,12 +4002,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5056,7 +5128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E65"/>
   <sheetViews>
@@ -6176,12 +6248,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P161"/>
+  <dimension ref="A1:P193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A161"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="B162" sqref="B162:B193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8945,12 +9017,556 @@
         <v>1362615325.3592396</v>
       </c>
     </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B162" s="14">
+        <v>2019</v>
+      </c>
+      <c r="C162" s="21">
+        <v>804911354.56645799</v>
+      </c>
+      <c r="D162" s="22">
+        <v>368464620.6890257</v>
+      </c>
+      <c r="E162" s="23">
+        <v>1173375975.2554836</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B163" s="14">
+        <v>2019</v>
+      </c>
+      <c r="C163" s="21">
+        <v>1912760948.2255197</v>
+      </c>
+      <c r="D163" s="22">
+        <v>1089078552.0936646</v>
+      </c>
+      <c r="E163" s="23">
+        <v>3001839500.3191843</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B164" s="14">
+        <v>2019</v>
+      </c>
+      <c r="C164" s="21">
+        <v>573584453.7914139</v>
+      </c>
+      <c r="D164" s="22">
+        <v>207437465.28064001</v>
+      </c>
+      <c r="E164" s="23">
+        <v>781021919.07205379</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B165" s="14">
+        <v>2019</v>
+      </c>
+      <c r="C165" s="21">
+        <v>645539511.53905499</v>
+      </c>
+      <c r="D165" s="22">
+        <v>593675300.69926596</v>
+      </c>
+      <c r="E165" s="23">
+        <v>1239214812.2383208</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B166" s="14">
+        <v>2019</v>
+      </c>
+      <c r="C166" s="21">
+        <v>1259077455.0403681</v>
+      </c>
+      <c r="D166" s="22">
+        <v>3716283543.5333314</v>
+      </c>
+      <c r="E166" s="23">
+        <v>4975360998.573699</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B167" s="14">
+        <v>2019</v>
+      </c>
+      <c r="C167" s="21">
+        <v>372186266.05500782</v>
+      </c>
+      <c r="D167" s="22">
+        <v>334070014.56502694</v>
+      </c>
+      <c r="E167" s="23">
+        <v>706256280.62003481</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B168" s="14">
+        <v>2019</v>
+      </c>
+      <c r="C168" s="21">
+        <v>1285589165.4486241</v>
+      </c>
+      <c r="D168" s="22">
+        <v>1329577388.3316629</v>
+      </c>
+      <c r="E168" s="23">
+        <v>2615166553.7802873</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B169" s="14">
+        <v>2019</v>
+      </c>
+      <c r="C169" s="21">
+        <v>1871052617.7630396</v>
+      </c>
+      <c r="D169" s="22">
+        <v>3030340132.7843285</v>
+      </c>
+      <c r="E169" s="23">
+        <v>4901392750.547368</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B170" s="14">
+        <v>2019</v>
+      </c>
+      <c r="C170" s="21">
+        <v>13949090985.960407</v>
+      </c>
+      <c r="D170" s="22">
+        <v>16959530401.138617</v>
+      </c>
+      <c r="E170" s="23">
+        <v>30908621387.099026</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B171" s="14">
+        <v>2019</v>
+      </c>
+      <c r="C171" s="21">
+        <v>381851858.11897475</v>
+      </c>
+      <c r="D171" s="22">
+        <v>1765599165.5988092</v>
+      </c>
+      <c r="E171" s="23">
+        <v>2147451023.7177839</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B172" s="14">
+        <v>2019</v>
+      </c>
+      <c r="C172" s="21">
+        <v>3135323253.9144511</v>
+      </c>
+      <c r="D172" s="22">
+        <v>3586161280.3587542</v>
+      </c>
+      <c r="E172" s="23">
+        <v>6721484534.2732058</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B173" s="14">
+        <v>2019</v>
+      </c>
+      <c r="C173" s="21">
+        <v>1174003985.4916811</v>
+      </c>
+      <c r="D173" s="22">
+        <v>1429888262.1162169</v>
+      </c>
+      <c r="E173" s="23">
+        <v>2603892247.6078978</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B174" s="14">
+        <v>2019</v>
+      </c>
+      <c r="C174" s="21">
+        <v>1199897556.9202461</v>
+      </c>
+      <c r="D174" s="22">
+        <v>2267471566.6024151</v>
+      </c>
+      <c r="E174" s="23">
+        <v>3467369123.5226612</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B175" s="14">
+        <v>2019</v>
+      </c>
+      <c r="C175" s="21">
+        <v>3864124957.0875845</v>
+      </c>
+      <c r="D175" s="22">
+        <v>4646470686.7029715</v>
+      </c>
+      <c r="E175" s="23">
+        <v>8510595643.790556</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B176" s="14">
+        <v>2019</v>
+      </c>
+      <c r="C176" s="21">
+        <v>7202495123.4776144</v>
+      </c>
+      <c r="D176" s="22">
+        <v>11216290783.131342</v>
+      </c>
+      <c r="E176" s="23">
+        <v>18418785906.608955</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B177" s="14">
+        <v>2019</v>
+      </c>
+      <c r="C177" s="21">
+        <v>2342157732.7630091</v>
+      </c>
+      <c r="D177" s="22">
+        <v>5353073346.9390879</v>
+      </c>
+      <c r="E177" s="23">
+        <v>7695231079.7020969</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B178" s="14">
+        <v>2019</v>
+      </c>
+      <c r="C178" s="21">
+        <v>1096223138.2676637</v>
+      </c>
+      <c r="D178" s="22">
+        <v>1169354911.1792066</v>
+      </c>
+      <c r="E178" s="23">
+        <v>2265578049.4468703</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B179" s="14">
+        <v>2019</v>
+      </c>
+      <c r="C179" s="21">
+        <v>295705035.75021952</v>
+      </c>
+      <c r="D179" s="22">
+        <v>317483225.66358119</v>
+      </c>
+      <c r="E179" s="23">
+        <v>613188261.41380072</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B180" s="14">
+        <v>2019</v>
+      </c>
+      <c r="C180" s="21">
+        <v>3918717311.7689075</v>
+      </c>
+      <c r="D180" s="22">
+        <v>1444710672.1331253</v>
+      </c>
+      <c r="E180" s="23">
+        <v>5363427983.9020329</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B181" s="14">
+        <v>2019</v>
+      </c>
+      <c r="C181" s="21">
+        <v>1760933321.4251025</v>
+      </c>
+      <c r="D181" s="22">
+        <v>2053558551.1063383</v>
+      </c>
+      <c r="E181" s="23">
+        <v>3814491872.5314407</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B182" s="14">
+        <v>2019</v>
+      </c>
+      <c r="C182" s="21">
+        <v>4696197499.4560881</v>
+      </c>
+      <c r="D182" s="22">
+        <v>8558315628.2688293</v>
+      </c>
+      <c r="E182" s="23">
+        <v>13254513127.724918</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B183" s="14">
+        <v>2019</v>
+      </c>
+      <c r="C183" s="21">
+        <v>1265484531.0249026</v>
+      </c>
+      <c r="D183" s="22">
+        <v>1391022731.6179035</v>
+      </c>
+      <c r="E183" s="23">
+        <v>2656507262.6428061</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B184" s="14">
+        <v>2019</v>
+      </c>
+      <c r="C184" s="21">
+        <v>1006883963.0438122</v>
+      </c>
+      <c r="D184" s="22">
+        <v>713583815.86371326</v>
+      </c>
+      <c r="E184" s="23">
+        <v>1720467778.9075253</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B185" s="14">
+        <v>2019</v>
+      </c>
+      <c r="C185" s="21">
+        <v>1127608267.3281012</v>
+      </c>
+      <c r="D185" s="22">
+        <v>879469175.05704737</v>
+      </c>
+      <c r="E185" s="23">
+        <v>2007077442.3851483</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B186" s="14">
+        <v>2019</v>
+      </c>
+      <c r="C186" s="21">
+        <v>919147374.05953157</v>
+      </c>
+      <c r="D186" s="22">
+        <v>738148731.49773443</v>
+      </c>
+      <c r="E186" s="23">
+        <v>1657296105.557266</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B187" s="14">
+        <v>2019</v>
+      </c>
+      <c r="C187" s="21">
+        <v>2151781554.6980219</v>
+      </c>
+      <c r="D187" s="22">
+        <v>1200882722.3049176</v>
+      </c>
+      <c r="E187" s="23">
+        <v>3352664277.0029392</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B188" s="14">
+        <v>2019</v>
+      </c>
+      <c r="C188" s="21">
+        <v>1396655549.1920202</v>
+      </c>
+      <c r="D188" s="22">
+        <v>1257632488.788327</v>
+      </c>
+      <c r="E188" s="23">
+        <v>2654288037.9803472</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B189" s="14">
+        <v>2019</v>
+      </c>
+      <c r="C189" s="21">
+        <v>2489093854.748755</v>
+      </c>
+      <c r="D189" s="22">
+        <v>768962183.28675473</v>
+      </c>
+      <c r="E189" s="23">
+        <v>3258056038.0355096</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B190" s="14">
+        <v>2019</v>
+      </c>
+      <c r="C190" s="21">
+        <v>743911011.70144308</v>
+      </c>
+      <c r="D190" s="22">
+        <v>757970786.63862431</v>
+      </c>
+      <c r="E190" s="23">
+        <v>1501881798.3400674</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B191" s="14">
+        <v>2019</v>
+      </c>
+      <c r="C191" s="21">
+        <v>2279029463.74932</v>
+      </c>
+      <c r="D191" s="22">
+        <v>6880950980.3810921</v>
+      </c>
+      <c r="E191" s="23">
+        <v>9159980444.1304131</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B192" s="14">
+        <v>2019</v>
+      </c>
+      <c r="C192" s="21">
+        <v>849675732.84278965</v>
+      </c>
+      <c r="D192" s="22">
+        <v>416610707.37119162</v>
+      </c>
+      <c r="E192" s="23">
+        <v>1266286440.2139814</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B193" s="14">
+        <v>2019</v>
+      </c>
+      <c r="C193" s="21">
+        <v>779107086.23907351</v>
+      </c>
+      <c r="D193" s="22">
+        <v>583508239.12016606</v>
+      </c>
+      <c r="E193" s="23">
+        <v>1362615325.3592396</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L76"/>
   <sheetViews>
